--- a/biology/Botanique/Echinodorus_macrophyllus/Echinodorus_macrophyllus.xlsx
+++ b/biology/Botanique/Echinodorus_macrophyllus/Echinodorus_macrophyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodorus macrophyllus, ou Echinodorus à grandes feuilles, est une espèce de plantes à fleurs de la famille des Alismataceae. Un synonyme est Echinodorus scaber.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente du Venezuela à l'Argentine et également au Nicaragua.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante aquatique. Ses feuilles peuvent atteindre 40 cm.
 </t>
@@ -573,7 +589,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est identique à Echinodorus cordifolius. On distingue deux variétés : Echinodorus macrophyllus ssp. macrophyllus et Echinodorus macrophyllus ssp. proliferatus.
  Portail de l’aquariophilie   Portail de la botanique   Portail de l’Argentine   Portail du Nicaragua   Portail du Venezuela                 </t>
